--- a/docs/StructureDefinition-tr-br-breathing-intervention-tension-pneumothorax-procedure.xlsx
+++ b/docs/StructureDefinition-tr-br-breathing-intervention-tension-pneumothorax-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T20:06:16+02:00</t>
+    <t>2025-05-13T19:16:00+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (http://example.org/example-publisher, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-tr-br-breathing-intervention-tension-pneumothorax-procedure.xlsx
+++ b/docs/StructureDefinition-tr-br-breathing-intervention-tension-pneumothorax-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T19:16:00+02:00</t>
+    <t>2025-05-14T23:21:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -557,7 +557,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure|Observation|MedicationAdministration)
+    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/tr-br-breathing-disorder-of-thorax-observation)
 </t>
   </si>
   <si>
@@ -1726,7 +1726,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.5625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.84765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -3370,13 +3370,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>20</v>

--- a/docs/StructureDefinition-tr-br-breathing-intervention-tension-pneumothorax-procedure.xlsx
+++ b/docs/StructureDefinition-tr-br-breathing-intervention-tension-pneumothorax-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T23:21:35+02:00</t>
+    <t>2025-05-14T23:43:24+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-tr-br-breathing-intervention-tension-pneumothorax-procedure.xlsx
+++ b/docs/StructureDefinition-tr-br-breathing-intervention-tension-pneumothorax-procedure.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-14T23:43:24+02:00</t>
+    <t>2025-05-19T18:20:06+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Constantin Renner (https://github.com/cdeveHealth, constantinrenner1@gmail.com)</t>
+    <t>Constantin Renner (https://github.com/medinterop-renner/TraumaIG, constantinrenner1@gmail.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
